--- a/colombiasystemautomation/testdata/testdata.xlsx
+++ b/colombiasystemautomation/testdata/testdata.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Alerts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="UserGroup" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="KnowledgeBase" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">HDPORTAL_EMAIL</t>
   </si>
@@ -35,58 +36,28 @@
     <t xml:space="preserve">MIA@27dec1</t>
   </si>
   <si>
-    <t xml:space="preserve">WEARER_NUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALERT_WEARER_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALERT_SEVERITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALERT_START_DATE_FORMAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALERT_START_HOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALERT_START_MINUTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALERT_NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOSE_ALERT_NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacífica Rosalía Huerta, Automation-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dd/MM/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual alert is created...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing alert...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irfan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc</t>
+    <t xml:space="preserve">USERGROUP_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG_AUTOMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNOWLEDGEBASE_ITEMNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNOWLEDGEBASE_SUBJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNOWLEDGEBASE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_AUTOMATION_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the subject for knowledge base...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the description for knowledge base...</t>
   </si>
 </sst>
 </file>
@@ -274,7 +245,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -320,7 +291,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -328,85 +299,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>9010203040</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/colombiasystemautomation/testdata/testdata.xlsx
+++ b/colombiasystemautomation/testdata/testdata.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserGroup" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="KnowledgeBase" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Alerts" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">HDPORTAL_EMAIL</t>
   </si>
@@ -58,14 +59,54 @@
   </si>
   <si>
     <t xml:space="preserve">This is the description for knowledge base...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT_WEARER_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT_SEVERITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT_START_DATE_FORMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT_START_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT_START_MINUTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT_NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEARER_NUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacífica Rosalía Huerta, Automation-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating manual alert….</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -149,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,6 +204,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,6 +349,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,15 +380,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,6 +412,87 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>9010203040</v>
       </c>
     </row>
   </sheetData>

--- a/colombiasystemautomation/testdata/testdata.xlsx
+++ b/colombiasystemautomation/testdata/testdata.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserGroup" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="KnowledgeBase" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Alerts" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="RecordCreditNote" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">HDPORTAL_EMAIL</t>
   </si>
@@ -58,7 +59,7 @@
     <t xml:space="preserve">This is the subject for knowledge base...</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the description for knowledge base...</t>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">ALERT_WEARER_NAME</t>
@@ -91,22 +92,56 @@
     <t xml:space="preserve">dd/MM/yyyy</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">Creating manual alert….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_UBIN_ITEMNUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_WEARER_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_OBSERVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_START_DATE_FORMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_END_DATE_FORMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wearer name from excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit notes from excel sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation from excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -211,7 +246,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,14 +333,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -313,7 +348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -346,18 +381,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -381,18 +416,18 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -403,7 +438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -432,24 +467,24 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -472,7 +507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -482,16 +517,16 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="1" t="n">
         <v>9010203040</v>
       </c>
     </row>
@@ -504,4 +539,77 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/colombiasystemautomation/testdata/testdata.xlsx
+++ b/colombiasystemautomation/testdata/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -190,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,10 +208,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,8 +376,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,13 +428,13 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.34"/>
@@ -491,7 +487,7 @@
       <c r="F2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="1" t="n">
         <v>9010203040</v>
       </c>
     </row>

--- a/colombiasystemautomation/testdata/testdata.xlsx
+++ b/colombiasystemautomation/testdata/testdata.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserGroup" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="KnowledgeBase" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Alerts" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="RecordCreditNote" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">HDPORTAL_EMAIL</t>
   </si>
@@ -98,15 +99,52 @@
   </si>
   <si>
     <t xml:space="preserve">Creating manual alert….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_UBIN_ITEMNUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_WEARER_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_OBSERVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_START_DATE_FORMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORDCREDITNOTE_END_DATE_FORMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wearer name from excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit notes from excel sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation from excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -190,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +246,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,7 +418,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -500,4 +542,76 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/colombiasystemautomation/testdata/testdata.xlsx
+++ b/colombiasystemautomation/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="15585" windowHeight="150" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12825" windowHeight="6645" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Visits_CompletedVisits" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:F20"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -982,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
